--- a/Table_S1_Ver01.xlsx
+++ b/Table_S1_Ver01.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25009"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m86397ah\OneDrive - The University of Manchester\My_Archive\My Papers\Adsorption Journal\SI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Lev\Research\My Group\People\Amir\Zeolite artcile\new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5136FB-CB39-4523-A207-873878150F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Table S1" sheetId="10" r:id="rId1"/>
@@ -19,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Table S1'!$A$1:$AN$258</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -996,11 +995,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1348,63 +1347,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1440,6 +1382,63 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1903,17 +1902,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB32B409-91F0-4854-83D9-C00BF44B53E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN258"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" sqref="A1:A3"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="AB125" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="AD137" sqref="AD137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" style="11" customWidth="1"/>
@@ -1955,64 +1954,64 @@
     <col min="38" max="38" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="15" customHeight="1" thickBot="1">
-      <c r="A1" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="69" t="s">
+    <row r="1" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="63" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="64"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="60" t="s">
+      <c r="J1" s="45"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="52" t="s">
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="53"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="49" t="s">
+      <c r="T1" s="54"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="46" t="s">
+      <c r="W1" s="70"/>
+      <c r="X1" s="70"/>
+      <c r="Y1" s="70"/>
+      <c r="Z1" s="70"/>
+      <c r="AA1" s="70"/>
+      <c r="AB1" s="71"/>
+      <c r="AC1" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="48"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="67"/>
+      <c r="AF1" s="67"/>
+      <c r="AG1" s="67"/>
+      <c r="AH1" s="68"/>
       <c r="AL1" s="12"/>
       <c r="AM1" s="14"/>
       <c r="AN1" s="12"/>
     </row>
-    <row r="2" spans="1:40" ht="15" thickBot="1">
-      <c r="A2" s="70"/>
-      <c r="B2" s="70"/>
+    <row r="2" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
@@ -2091,40 +2090,40 @@
       <c r="AB2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AC2" s="55" t="s">
+      <c r="AC2" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="AD2" s="57" t="s">
+      <c r="AD2" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="AE2" s="59" t="s">
+      <c r="AE2" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="AF2" s="59" t="s">
+      <c r="AF2" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="AG2" s="57" t="s">
+      <c r="AG2" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="AH2" s="59" t="s">
+      <c r="AH2" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="AI2" s="41" t="s">
+      <c r="AI2" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="AJ2" s="43" t="s">
+      <c r="AJ2" s="63" t="s">
         <v>32</v>
       </c>
       <c r="AK2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AL2" s="44" t="s">
+      <c r="AL2" s="64" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:40" ht="15" thickBot="1">
-      <c r="A3" s="71"/>
-      <c r="B3" s="71"/>
+    <row r="3" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="3" t="s">
         <v>35</v>
       </c>
@@ -2203,20 +2202,20 @@
       <c r="AB3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AC3" s="56"/>
-      <c r="AD3" s="58"/>
-      <c r="AE3" s="58"/>
-      <c r="AF3" s="58"/>
-      <c r="AG3" s="58"/>
-      <c r="AH3" s="58"/>
-      <c r="AI3" s="42"/>
-      <c r="AJ3" s="42"/>
+      <c r="AC3" s="57"/>
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="59"/>
+      <c r="AF3" s="59"/>
+      <c r="AG3" s="59"/>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="62"/>
+      <c r="AJ3" s="62"/>
       <c r="AK3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AL3" s="45"/>
+      <c r="AL3" s="65"/>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>52</v>
       </c>
@@ -2337,7 +2336,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>56</v>
       </c>
@@ -2456,7 +2455,7 @@
       </c>
       <c r="AL5" s="39"/>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>58</v>
       </c>
@@ -2575,7 +2574,7 @@
       </c>
       <c r="AL6" s="39"/>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>60</v>
       </c>
@@ -2696,7 +2695,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>61</v>
       </c>
@@ -2815,7 +2814,7 @@
       </c>
       <c r="AL8" s="39"/>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>62</v>
       </c>
@@ -2936,7 +2935,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>63</v>
       </c>
@@ -3055,7 +3054,7 @@
       </c>
       <c r="AL10" s="39"/>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>64</v>
       </c>
@@ -3176,7 +3175,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>65</v>
       </c>
@@ -3295,7 +3294,7 @@
       </c>
       <c r="AL12" s="39"/>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>66</v>
       </c>
@@ -3416,7 +3415,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>67</v>
       </c>
@@ -3535,7 +3534,7 @@
       </c>
       <c r="AL14" s="39"/>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>68</v>
       </c>
@@ -3656,7 +3655,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>69</v>
       </c>
@@ -3775,7 +3774,7 @@
       </c>
       <c r="AL16" s="39"/>
     </row>
-    <row r="17" spans="1:38">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>70</v>
       </c>
@@ -3894,7 +3893,7 @@
       </c>
       <c r="AL17" s="39"/>
     </row>
-    <row r="18" spans="1:38">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>71</v>
       </c>
@@ -4013,7 +4012,7 @@
       </c>
       <c r="AL18" s="39"/>
     </row>
-    <row r="19" spans="1:38">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>72</v>
       </c>
@@ -4134,7 +4133,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:38">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>73</v>
       </c>
@@ -4255,7 +4254,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:38">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>74</v>
       </c>
@@ -4376,7 +4375,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:38">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>75</v>
       </c>
@@ -4495,7 +4494,7 @@
       </c>
       <c r="AL22" s="39"/>
     </row>
-    <row r="23" spans="1:38">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>76</v>
       </c>
@@ -4614,7 +4613,7 @@
       </c>
       <c r="AL23" s="39"/>
     </row>
-    <row r="24" spans="1:38">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>77</v>
       </c>
@@ -4733,7 +4732,7 @@
       </c>
       <c r="AL24" s="39"/>
     </row>
-    <row r="25" spans="1:38">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>78</v>
       </c>
@@ -4852,7 +4851,7 @@
       </c>
       <c r="AL25" s="39"/>
     </row>
-    <row r="26" spans="1:38">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>79</v>
       </c>
@@ -4973,7 +4972,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:38">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>80</v>
       </c>
@@ -5094,7 +5093,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:38">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>81</v>
       </c>
@@ -5215,7 +5214,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:38">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>82</v>
       </c>
@@ -5336,7 +5335,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:38">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>83</v>
       </c>
@@ -5455,7 +5454,7 @@
       </c>
       <c r="AL30" s="39"/>
     </row>
-    <row r="31" spans="1:38">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>84</v>
       </c>
@@ -5574,7 +5573,7 @@
       </c>
       <c r="AL31" s="39"/>
     </row>
-    <row r="32" spans="1:38">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>85</v>
       </c>
@@ -5693,7 +5692,7 @@
       </c>
       <c r="AL32" s="39"/>
     </row>
-    <row r="33" spans="1:38">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>86</v>
       </c>
@@ -5812,7 +5811,7 @@
       </c>
       <c r="AL33" s="39"/>
     </row>
-    <row r="34" spans="1:38">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>87</v>
       </c>
@@ -5931,7 +5930,7 @@
       </c>
       <c r="AL34" s="39"/>
     </row>
-    <row r="35" spans="1:38">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>88</v>
       </c>
@@ -6052,7 +6051,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:38">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>89</v>
       </c>
@@ -6169,7 +6168,7 @@
       </c>
       <c r="AL36" s="39"/>
     </row>
-    <row r="37" spans="1:38">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>91</v>
       </c>
@@ -6290,7 +6289,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:38">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>92</v>
       </c>
@@ -6411,7 +6410,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:38">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>93</v>
       </c>
@@ -6530,7 +6529,7 @@
       </c>
       <c r="AL39" s="39"/>
     </row>
-    <row r="40" spans="1:38">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>94</v>
       </c>
@@ -6651,7 +6650,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:38">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>95</v>
       </c>
@@ -6770,7 +6769,7 @@
       </c>
       <c r="AL41" s="39"/>
     </row>
-    <row r="42" spans="1:38">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>96</v>
       </c>
@@ -6891,7 +6890,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:38">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>97</v>
       </c>
@@ -7010,7 +7009,7 @@
       </c>
       <c r="AL43" s="39"/>
     </row>
-    <row r="44" spans="1:38">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>98</v>
       </c>
@@ -7129,7 +7128,7 @@
       </c>
       <c r="AL44" s="39"/>
     </row>
-    <row r="45" spans="1:38">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>99</v>
       </c>
@@ -7248,7 +7247,7 @@
       </c>
       <c r="AL45" s="39"/>
     </row>
-    <row r="46" spans="1:38">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>100</v>
       </c>
@@ -7367,7 +7366,7 @@
       </c>
       <c r="AL46" s="39"/>
     </row>
-    <row r="47" spans="1:38">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>101</v>
       </c>
@@ -7486,7 +7485,7 @@
       </c>
       <c r="AL47" s="39"/>
     </row>
-    <row r="48" spans="1:38">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>102</v>
       </c>
@@ -7607,7 +7606,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:38">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>103</v>
       </c>
@@ -7726,7 +7725,7 @@
       </c>
       <c r="AL49" s="39"/>
     </row>
-    <row r="50" spans="1:38">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>104</v>
       </c>
@@ -7845,7 +7844,7 @@
       </c>
       <c r="AL50" s="39"/>
     </row>
-    <row r="51" spans="1:38">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>105</v>
       </c>
@@ -7964,7 +7963,7 @@
       </c>
       <c r="AL51" s="39"/>
     </row>
-    <row r="52" spans="1:38">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>106</v>
       </c>
@@ -8085,7 +8084,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:38">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>107</v>
       </c>
@@ -8206,7 +8205,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:38">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>108</v>
       </c>
@@ -8327,7 +8326,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:38">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>109</v>
       </c>
@@ -8448,7 +8447,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:38">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>110</v>
       </c>
@@ -8569,7 +8568,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:38">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>111</v>
       </c>
@@ -8688,7 +8687,7 @@
       </c>
       <c r="AL57" s="39"/>
     </row>
-    <row r="58" spans="1:38">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>112</v>
       </c>
@@ -8807,7 +8806,7 @@
       </c>
       <c r="AL58" s="39"/>
     </row>
-    <row r="59" spans="1:38">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>113</v>
       </c>
@@ -8928,7 +8927,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:38">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>114</v>
       </c>
@@ -9047,7 +9046,7 @@
       </c>
       <c r="AL60" s="39"/>
     </row>
-    <row r="61" spans="1:38">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>115</v>
       </c>
@@ -9166,7 +9165,7 @@
       </c>
       <c r="AL61" s="39"/>
     </row>
-    <row r="62" spans="1:38">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>116</v>
       </c>
@@ -9287,7 +9286,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="63" spans="1:38">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>117</v>
       </c>
@@ -9406,7 +9405,7 @@
       </c>
       <c r="AL63" s="39"/>
     </row>
-    <row r="64" spans="1:38">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>118</v>
       </c>
@@ -9525,7 +9524,7 @@
       </c>
       <c r="AL64" s="39"/>
     </row>
-    <row r="65" spans="1:38">
+    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>119</v>
       </c>
@@ -9644,7 +9643,7 @@
       </c>
       <c r="AL65" s="39"/>
     </row>
-    <row r="66" spans="1:38">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>120</v>
       </c>
@@ -9763,7 +9762,7 @@
       </c>
       <c r="AL66" s="39"/>
     </row>
-    <row r="67" spans="1:38">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>121</v>
       </c>
@@ -9882,7 +9881,7 @@
       </c>
       <c r="AL67" s="39"/>
     </row>
-    <row r="68" spans="1:38">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>122</v>
       </c>
@@ -10001,7 +10000,7 @@
       </c>
       <c r="AL68" s="39"/>
     </row>
-    <row r="69" spans="1:38">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>123</v>
       </c>
@@ -10120,7 +10119,7 @@
       </c>
       <c r="AL69" s="39"/>
     </row>
-    <row r="70" spans="1:38">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>124</v>
       </c>
@@ -10239,7 +10238,7 @@
       </c>
       <c r="AL70" s="39"/>
     </row>
-    <row r="71" spans="1:38">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>125</v>
       </c>
@@ -10358,7 +10357,7 @@
       </c>
       <c r="AL71" s="39"/>
     </row>
-    <row r="72" spans="1:38">
+    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>126</v>
       </c>
@@ -10477,7 +10476,7 @@
       </c>
       <c r="AL72" s="39"/>
     </row>
-    <row r="73" spans="1:38">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>127</v>
       </c>
@@ -10596,7 +10595,7 @@
       </c>
       <c r="AL73" s="39"/>
     </row>
-    <row r="74" spans="1:38">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
         <v>128</v>
       </c>
@@ -10717,7 +10716,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="75" spans="1:38">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>129</v>
       </c>
@@ -10836,7 +10835,7 @@
       </c>
       <c r="AL75" s="39"/>
     </row>
-    <row r="76" spans="1:38">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>130</v>
       </c>
@@ -10955,7 +10954,7 @@
       </c>
       <c r="AL76" s="39"/>
     </row>
-    <row r="77" spans="1:38">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>131</v>
       </c>
@@ -11076,7 +11075,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="78" spans="1:38">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
         <v>132</v>
       </c>
@@ -11195,7 +11194,7 @@
       </c>
       <c r="AL78" s="39"/>
     </row>
-    <row r="79" spans="1:38">
+    <row r="79" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
         <v>133</v>
       </c>
@@ -11314,7 +11313,7 @@
       </c>
       <c r="AL79" s="39"/>
     </row>
-    <row r="80" spans="1:38">
+    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
         <v>134</v>
       </c>
@@ -11433,7 +11432,7 @@
       </c>
       <c r="AL80" s="39"/>
     </row>
-    <row r="81" spans="1:38">
+    <row r="81" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
         <v>135</v>
       </c>
@@ -11552,7 +11551,7 @@
       </c>
       <c r="AL81" s="39"/>
     </row>
-    <row r="82" spans="1:38">
+    <row r="82" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
         <v>136</v>
       </c>
@@ -11671,7 +11670,7 @@
       </c>
       <c r="AL82" s="39"/>
     </row>
-    <row r="83" spans="1:38">
+    <row r="83" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
         <v>137</v>
       </c>
@@ -11790,7 +11789,7 @@
       </c>
       <c r="AL83" s="39"/>
     </row>
-    <row r="84" spans="1:38">
+    <row r="84" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
         <v>138</v>
       </c>
@@ -11909,7 +11908,7 @@
       </c>
       <c r="AL84" s="39"/>
     </row>
-    <row r="85" spans="1:38">
+    <row r="85" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
         <v>139</v>
       </c>
@@ -12030,7 +12029,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="86" spans="1:38">
+    <row r="86" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
         <v>140</v>
       </c>
@@ -12149,7 +12148,7 @@
       </c>
       <c r="AL86" s="39"/>
     </row>
-    <row r="87" spans="1:38">
+    <row r="87" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
         <v>141</v>
       </c>
@@ -12268,7 +12267,7 @@
       </c>
       <c r="AL87" s="39"/>
     </row>
-    <row r="88" spans="1:38">
+    <row r="88" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
         <v>142</v>
       </c>
@@ -12389,7 +12388,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="89" spans="1:38">
+    <row r="89" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
         <v>143</v>
       </c>
@@ -12510,7 +12509,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="90" spans="1:38">
+    <row r="90" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
         <v>144</v>
       </c>
@@ -12631,7 +12630,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="91" spans="1:38">
+    <row r="91" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
         <v>145</v>
       </c>
@@ -12752,7 +12751,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="92" spans="1:38">
+    <row r="92" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
         <v>146</v>
       </c>
@@ -12873,7 +12872,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="93" spans="1:38">
+    <row r="93" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
         <v>147</v>
       </c>
@@ -12992,7 +12991,7 @@
       </c>
       <c r="AL93" s="39"/>
     </row>
-    <row r="94" spans="1:38">
+    <row r="94" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
         <v>148</v>
       </c>
@@ -13111,7 +13110,7 @@
       </c>
       <c r="AL94" s="39"/>
     </row>
-    <row r="95" spans="1:38">
+    <row r="95" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
         <v>149</v>
       </c>
@@ -13232,7 +13231,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="96" spans="1:38">
+    <row r="96" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
         <v>150</v>
       </c>
@@ -13351,7 +13350,7 @@
       </c>
       <c r="AL96" s="39"/>
     </row>
-    <row r="97" spans="1:38">
+    <row r="97" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
         <v>151</v>
       </c>
@@ -13472,7 +13471,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="98" spans="1:38">
+    <row r="98" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
         <v>152</v>
       </c>
@@ -13593,7 +13592,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="99" spans="1:38">
+    <row r="99" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
         <v>153</v>
       </c>
@@ -13714,7 +13713,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="100" spans="1:38">
+    <row r="100" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
         <v>154</v>
       </c>
@@ -13835,7 +13834,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="101" spans="1:38">
+    <row r="101" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
         <v>155</v>
       </c>
@@ -13956,7 +13955,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="102" spans="1:38">
+    <row r="102" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
         <v>156</v>
       </c>
@@ -14077,7 +14076,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="103" spans="1:38">
+    <row r="103" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
         <v>157</v>
       </c>
@@ -14198,7 +14197,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="104" spans="1:38">
+    <row r="104" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
         <v>158</v>
       </c>
@@ -14319,7 +14318,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="105" spans="1:38">
+    <row r="105" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
         <v>159</v>
       </c>
@@ -14440,7 +14439,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="106" spans="1:38">
+    <row r="106" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
         <v>160</v>
       </c>
@@ -14559,7 +14558,7 @@
       </c>
       <c r="AL106" s="39"/>
     </row>
-    <row r="107" spans="1:38">
+    <row r="107" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
         <v>161</v>
       </c>
@@ -14680,7 +14679,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="108" spans="1:38">
+    <row r="108" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
         <v>162</v>
       </c>
@@ -14801,7 +14800,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="109" spans="1:38">
+    <row r="109" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
         <v>163</v>
       </c>
@@ -14922,7 +14921,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="110" spans="1:38">
+    <row r="110" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
         <v>164</v>
       </c>
@@ -15043,7 +15042,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="111" spans="1:38">
+    <row r="111" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
         <v>165</v>
       </c>
@@ -15164,7 +15163,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="112" spans="1:38">
+    <row r="112" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
         <v>166</v>
       </c>
@@ -15283,7 +15282,7 @@
       </c>
       <c r="AL112" s="39"/>
     </row>
-    <row r="113" spans="1:38">
+    <row r="113" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
         <v>167</v>
       </c>
@@ -15402,7 +15401,7 @@
       </c>
       <c r="AL113" s="39"/>
     </row>
-    <row r="114" spans="1:38">
+    <row r="114" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
         <v>168</v>
       </c>
@@ -15521,7 +15520,7 @@
       </c>
       <c r="AL114" s="39"/>
     </row>
-    <row r="115" spans="1:38">
+    <row r="115" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
         <v>169</v>
       </c>
@@ -15640,7 +15639,7 @@
       </c>
       <c r="AL115" s="39"/>
     </row>
-    <row r="116" spans="1:38">
+    <row r="116" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
         <v>170</v>
       </c>
@@ -15761,7 +15760,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="117" spans="1:38">
+    <row r="117" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
         <v>171</v>
       </c>
@@ -15880,7 +15879,7 @@
       </c>
       <c r="AL117" s="39"/>
     </row>
-    <row r="118" spans="1:38">
+    <row r="118" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
         <v>172</v>
       </c>
@@ -15999,7 +15998,7 @@
       </c>
       <c r="AL118" s="39"/>
     </row>
-    <row r="119" spans="1:38">
+    <row r="119" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
         <v>173</v>
       </c>
@@ -16120,7 +16119,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="120" spans="1:38">
+    <row r="120" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
         <v>174</v>
       </c>
@@ -16241,7 +16240,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="121" spans="1:38">
+    <row r="121" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
         <v>175</v>
       </c>
@@ -16360,7 +16359,7 @@
       </c>
       <c r="AL121" s="39"/>
     </row>
-    <row r="122" spans="1:38">
+    <row r="122" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
         <v>176</v>
       </c>
@@ -16479,7 +16478,7 @@
       </c>
       <c r="AL122" s="39"/>
     </row>
-    <row r="123" spans="1:38">
+    <row r="123" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
         <v>177</v>
       </c>
@@ -16596,7 +16595,7 @@
       </c>
       <c r="AL123" s="39"/>
     </row>
-    <row r="124" spans="1:38">
+    <row r="124" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
         <v>179</v>
       </c>
@@ -16715,7 +16714,7 @@
       </c>
       <c r="AL124" s="39"/>
     </row>
-    <row r="125" spans="1:38">
+    <row r="125" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
         <v>180</v>
       </c>
@@ -16834,7 +16833,7 @@
       </c>
       <c r="AL125" s="39"/>
     </row>
-    <row r="126" spans="1:38">
+    <row r="126" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
         <v>181</v>
       </c>
@@ -16953,7 +16952,7 @@
       </c>
       <c r="AL126" s="39"/>
     </row>
-    <row r="127" spans="1:38">
+    <row r="127" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
         <v>182</v>
       </c>
@@ -17072,7 +17071,7 @@
       </c>
       <c r="AL127" s="39"/>
     </row>
-    <row r="128" spans="1:38">
+    <row r="128" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
         <v>183</v>
       </c>
@@ -17193,7 +17192,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="129" spans="1:38">
+    <row r="129" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
         <v>184</v>
       </c>
@@ -17314,7 +17313,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="130" spans="1:38">
+    <row r="130" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
         <v>185</v>
       </c>
@@ -17433,7 +17432,7 @@
       </c>
       <c r="AL130" s="39"/>
     </row>
-    <row r="131" spans="1:38">
+    <row r="131" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
         <v>186</v>
       </c>
@@ -17552,7 +17551,7 @@
       </c>
       <c r="AL131" s="39"/>
     </row>
-    <row r="132" spans="1:38">
+    <row r="132" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="s">
         <v>187</v>
       </c>
@@ -17671,7 +17670,7 @@
       </c>
       <c r="AL132" s="39"/>
     </row>
-    <row r="133" spans="1:38">
+    <row r="133" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
         <v>188</v>
       </c>
@@ -17792,7 +17791,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="134" spans="1:38">
+    <row r="134" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="s">
         <v>189</v>
       </c>
@@ -17913,7 +17912,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="135" spans="1:38">
+    <row r="135" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="s">
         <v>190</v>
       </c>
@@ -18032,7 +18031,7 @@
       </c>
       <c r="AL135" s="39"/>
     </row>
-    <row r="136" spans="1:38">
+    <row r="136" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="s">
         <v>191</v>
       </c>
@@ -18151,7 +18150,7 @@
       </c>
       <c r="AL136" s="39"/>
     </row>
-    <row r="137" spans="1:38">
+    <row r="137" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A137" s="8" t="s">
         <v>192</v>
       </c>
@@ -18272,7 +18271,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="138" spans="1:38">
+    <row r="138" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A138" s="8" t="s">
         <v>193</v>
       </c>
@@ -18391,7 +18390,7 @@
       </c>
       <c r="AL138" s="39"/>
     </row>
-    <row r="139" spans="1:38">
+    <row r="139" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A139" s="8" t="s">
         <v>194</v>
       </c>
@@ -18512,7 +18511,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="140" spans="1:38">
+    <row r="140" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A140" s="8" t="s">
         <v>195</v>
       </c>
@@ -18631,7 +18630,7 @@
       </c>
       <c r="AL140" s="39"/>
     </row>
-    <row r="141" spans="1:38">
+    <row r="141" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A141" s="8" t="s">
         <v>196</v>
       </c>
@@ -18750,7 +18749,7 @@
       </c>
       <c r="AL141" s="39"/>
     </row>
-    <row r="142" spans="1:38">
+    <row r="142" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A142" s="8" t="s">
         <v>197</v>
       </c>
@@ -18869,7 +18868,7 @@
       </c>
       <c r="AL142" s="39"/>
     </row>
-    <row r="143" spans="1:38">
+    <row r="143" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A143" s="8" t="s">
         <v>198</v>
       </c>
@@ -18990,7 +18989,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="144" spans="1:38">
+    <row r="144" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A144" s="8" t="s">
         <v>199</v>
       </c>
@@ -19109,7 +19108,7 @@
       </c>
       <c r="AL144" s="39"/>
     </row>
-    <row r="145" spans="1:38">
+    <row r="145" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A145" s="8" t="s">
         <v>200</v>
       </c>
@@ -19230,7 +19229,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="146" spans="1:38">
+    <row r="146" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A146" s="8" t="s">
         <v>201</v>
       </c>
@@ -19349,7 +19348,7 @@
       </c>
       <c r="AL146" s="39"/>
     </row>
-    <row r="147" spans="1:38">
+    <row r="147" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A147" s="8" t="s">
         <v>202</v>
       </c>
@@ -19470,7 +19469,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="148" spans="1:38">
+    <row r="148" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A148" s="8" t="s">
         <v>203</v>
       </c>
@@ -19591,7 +19590,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="149" spans="1:38">
+    <row r="149" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A149" s="8" t="s">
         <v>204</v>
       </c>
@@ -19708,7 +19707,7 @@
       </c>
       <c r="AL149" s="39"/>
     </row>
-    <row r="150" spans="1:38">
+    <row r="150" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A150" s="8" t="s">
         <v>205</v>
       </c>
@@ -19827,7 +19826,7 @@
       </c>
       <c r="AL150" s="39"/>
     </row>
-    <row r="151" spans="1:38">
+    <row r="151" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A151" s="8" t="s">
         <v>206</v>
       </c>
@@ -19948,7 +19947,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="152" spans="1:38">
+    <row r="152" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A152" s="8" t="s">
         <v>207</v>
       </c>
@@ -20069,7 +20068,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="153" spans="1:38">
+    <row r="153" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A153" s="8" t="s">
         <v>208</v>
       </c>
@@ -20190,7 +20189,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="154" spans="1:38">
+    <row r="154" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A154" s="8" t="s">
         <v>209</v>
       </c>
@@ -20311,7 +20310,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="155" spans="1:38">
+    <row r="155" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A155" s="8" t="s">
         <v>210</v>
       </c>
@@ -20430,7 +20429,7 @@
       </c>
       <c r="AL155" s="39"/>
     </row>
-    <row r="156" spans="1:38">
+    <row r="156" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A156" s="8" t="s">
         <v>211</v>
       </c>
@@ -20551,7 +20550,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="157" spans="1:38">
+    <row r="157" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A157" s="8" t="s">
         <v>212</v>
       </c>
@@ -20670,7 +20669,7 @@
       </c>
       <c r="AL157" s="39"/>
     </row>
-    <row r="158" spans="1:38">
+    <row r="158" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A158" s="8" t="s">
         <v>213</v>
       </c>
@@ -20791,7 +20790,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="159" spans="1:38">
+    <row r="159" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A159" s="8" t="s">
         <v>214</v>
       </c>
@@ -20910,7 +20909,7 @@
       </c>
       <c r="AL159" s="39"/>
     </row>
-    <row r="160" spans="1:38">
+    <row r="160" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A160" s="8" t="s">
         <v>215</v>
       </c>
@@ -21029,7 +21028,7 @@
       </c>
       <c r="AL160" s="39"/>
     </row>
-    <row r="161" spans="1:38">
+    <row r="161" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A161" s="8" t="s">
         <v>216</v>
       </c>
@@ -21150,7 +21149,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="162" spans="1:38">
+    <row r="162" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A162" s="8" t="s">
         <v>217</v>
       </c>
@@ -21271,7 +21270,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="163" spans="1:38">
+    <row r="163" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A163" s="8" t="s">
         <v>218</v>
       </c>
@@ -21392,7 +21391,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="164" spans="1:38">
+    <row r="164" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A164" s="8" t="s">
         <v>219</v>
       </c>
@@ -21511,7 +21510,7 @@
       </c>
       <c r="AL164" s="39"/>
     </row>
-    <row r="165" spans="1:38">
+    <row r="165" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A165" s="8" t="s">
         <v>220</v>
       </c>
@@ -21632,7 +21631,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="166" spans="1:38">
+    <row r="166" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A166" s="8" t="s">
         <v>221</v>
       </c>
@@ -21751,7 +21750,7 @@
       </c>
       <c r="AL166" s="39"/>
     </row>
-    <row r="167" spans="1:38">
+    <row r="167" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A167" s="8" t="s">
         <v>222</v>
       </c>
@@ -21870,7 +21869,7 @@
       </c>
       <c r="AL167" s="39"/>
     </row>
-    <row r="168" spans="1:38">
+    <row r="168" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A168" s="8" t="s">
         <v>223</v>
       </c>
@@ -21989,7 +21988,7 @@
       </c>
       <c r="AL168" s="39"/>
     </row>
-    <row r="169" spans="1:38">
+    <row r="169" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A169" s="8" t="s">
         <v>224</v>
       </c>
@@ -22108,7 +22107,7 @@
       </c>
       <c r="AL169" s="39"/>
     </row>
-    <row r="170" spans="1:38">
+    <row r="170" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A170" s="8" t="s">
         <v>225</v>
       </c>
@@ -22227,7 +22226,7 @@
       </c>
       <c r="AL170" s="39"/>
     </row>
-    <row r="171" spans="1:38">
+    <row r="171" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A171" s="8" t="s">
         <v>226</v>
       </c>
@@ -22348,7 +22347,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="172" spans="1:38">
+    <row r="172" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A172" s="8" t="s">
         <v>227</v>
       </c>
@@ -22469,7 +22468,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="173" spans="1:38">
+    <row r="173" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A173" s="8" t="s">
         <v>228</v>
       </c>
@@ -22588,7 +22587,7 @@
       </c>
       <c r="AL173" s="39"/>
     </row>
-    <row r="174" spans="1:38">
+    <row r="174" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A174" s="8" t="s">
         <v>229</v>
       </c>
@@ -22707,7 +22706,7 @@
       </c>
       <c r="AL174" s="39"/>
     </row>
-    <row r="175" spans="1:38">
+    <row r="175" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A175" s="8" t="s">
         <v>230</v>
       </c>
@@ -22828,7 +22827,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="176" spans="1:38">
+    <row r="176" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A176" s="8" t="s">
         <v>231</v>
       </c>
@@ -22949,7 +22948,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="177" spans="1:38">
+    <row r="177" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A177" s="8" t="s">
         <v>232</v>
       </c>
@@ -23068,7 +23067,7 @@
       </c>
       <c r="AL177" s="39"/>
     </row>
-    <row r="178" spans="1:38">
+    <row r="178" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A178" s="8" t="s">
         <v>233</v>
       </c>
@@ -23189,7 +23188,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="179" spans="1:38">
+    <row r="179" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A179" s="8" t="s">
         <v>234</v>
       </c>
@@ -23310,7 +23309,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="180" spans="1:38">
+    <row r="180" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A180" s="8" t="s">
         <v>235</v>
       </c>
@@ -23431,7 +23430,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="181" spans="1:38">
+    <row r="181" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A181" s="8" t="s">
         <v>236</v>
       </c>
@@ -23552,7 +23551,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="182" spans="1:38">
+    <row r="182" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A182" s="8" t="s">
         <v>237</v>
       </c>
@@ -23671,7 +23670,7 @@
       </c>
       <c r="AL182" s="39"/>
     </row>
-    <row r="183" spans="1:38">
+    <row r="183" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A183" s="8" t="s">
         <v>238</v>
       </c>
@@ -23790,7 +23789,7 @@
       </c>
       <c r="AL183" s="39"/>
     </row>
-    <row r="184" spans="1:38">
+    <row r="184" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A184" s="8" t="s">
         <v>239</v>
       </c>
@@ -23911,7 +23910,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="185" spans="1:38">
+    <row r="185" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A185" s="8" t="s">
         <v>240</v>
       </c>
@@ -24032,7 +24031,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="186" spans="1:38">
+    <row r="186" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A186" s="8" t="s">
         <v>241</v>
       </c>
@@ -24151,7 +24150,7 @@
       </c>
       <c r="AL186" s="39"/>
     </row>
-    <row r="187" spans="1:38">
+    <row r="187" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A187" s="8" t="s">
         <v>242</v>
       </c>
@@ -24270,7 +24269,7 @@
       </c>
       <c r="AL187" s="39"/>
     </row>
-    <row r="188" spans="1:38">
+    <row r="188" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A188" s="8" t="s">
         <v>243</v>
       </c>
@@ -24391,7 +24390,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="189" spans="1:38">
+    <row r="189" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A189" s="8" t="s">
         <v>244</v>
       </c>
@@ -24512,7 +24511,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="190" spans="1:38">
+    <row r="190" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A190" s="8" t="s">
         <v>245</v>
       </c>
@@ -24633,7 +24632,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="191" spans="1:38">
+    <row r="191" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A191" s="8" t="s">
         <v>246</v>
       </c>
@@ -24754,7 +24753,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="192" spans="1:38">
+    <row r="192" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A192" s="8" t="s">
         <v>247</v>
       </c>
@@ -24873,7 +24872,7 @@
       </c>
       <c r="AL192" s="39"/>
     </row>
-    <row r="193" spans="1:38">
+    <row r="193" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A193" s="8" t="s">
         <v>248</v>
       </c>
@@ -24992,7 +24991,7 @@
       </c>
       <c r="AL193" s="39"/>
     </row>
-    <row r="194" spans="1:38">
+    <row r="194" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A194" s="8" t="s">
         <v>249</v>
       </c>
@@ -25113,7 +25112,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="195" spans="1:38">
+    <row r="195" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A195" s="8" t="s">
         <v>250</v>
       </c>
@@ -25232,7 +25231,7 @@
       </c>
       <c r="AL195" s="39"/>
     </row>
-    <row r="196" spans="1:38">
+    <row r="196" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A196" s="8" t="s">
         <v>251</v>
       </c>
@@ -25353,7 +25352,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="197" spans="1:38">
+    <row r="197" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A197" s="8" t="s">
         <v>252</v>
       </c>
@@ -25474,7 +25473,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="198" spans="1:38">
+    <row r="198" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A198" s="8" t="s">
         <v>253</v>
       </c>
@@ -25595,7 +25594,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="199" spans="1:38">
+    <row r="199" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A199" s="8" t="s">
         <v>254</v>
       </c>
@@ -25716,7 +25715,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="200" spans="1:38">
+    <row r="200" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A200" s="8" t="s">
         <v>255</v>
       </c>
@@ -25837,7 +25836,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="201" spans="1:38">
+    <row r="201" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A201" s="8" t="s">
         <v>256</v>
       </c>
@@ -25958,7 +25957,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="202" spans="1:38">
+    <row r="202" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A202" s="8" t="s">
         <v>257</v>
       </c>
@@ -26079,7 +26078,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="203" spans="1:38">
+    <row r="203" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A203" s="8" t="s">
         <v>258</v>
       </c>
@@ -26200,7 +26199,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="204" spans="1:38">
+    <row r="204" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A204" s="8" t="s">
         <v>259</v>
       </c>
@@ -26319,7 +26318,7 @@
       </c>
       <c r="AL204" s="39"/>
     </row>
-    <row r="205" spans="1:38">
+    <row r="205" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A205" s="8" t="s">
         <v>260</v>
       </c>
@@ -26440,7 +26439,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="206" spans="1:38">
+    <row r="206" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A206" s="8" t="s">
         <v>261</v>
       </c>
@@ -26559,7 +26558,7 @@
       </c>
       <c r="AL206" s="39"/>
     </row>
-    <row r="207" spans="1:38">
+    <row r="207" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A207" s="8" t="s">
         <v>262</v>
       </c>
@@ -26678,7 +26677,7 @@
       </c>
       <c r="AL207" s="39"/>
     </row>
-    <row r="208" spans="1:38">
+    <row r="208" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A208" s="8" t="s">
         <v>263</v>
       </c>
@@ -26797,7 +26796,7 @@
       </c>
       <c r="AL208" s="39"/>
     </row>
-    <row r="209" spans="1:38">
+    <row r="209" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A209" s="8" t="s">
         <v>264</v>
       </c>
@@ -26916,7 +26915,7 @@
       </c>
       <c r="AL209" s="39"/>
     </row>
-    <row r="210" spans="1:38">
+    <row r="210" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A210" s="8" t="s">
         <v>265</v>
       </c>
@@ -27037,7 +27036,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="211" spans="1:38">
+    <row r="211" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A211" s="8" t="s">
         <v>266</v>
       </c>
@@ -27158,7 +27157,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="212" spans="1:38">
+    <row r="212" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A212" s="8" t="s">
         <v>267</v>
       </c>
@@ -27277,7 +27276,7 @@
       </c>
       <c r="AL212" s="39"/>
     </row>
-    <row r="213" spans="1:38">
+    <row r="213" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A213" s="8" t="s">
         <v>268</v>
       </c>
@@ -27398,7 +27397,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="214" spans="1:38">
+    <row r="214" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A214" s="8" t="s">
         <v>269</v>
       </c>
@@ -27517,7 +27516,7 @@
       </c>
       <c r="AL214" s="39"/>
     </row>
-    <row r="215" spans="1:38">
+    <row r="215" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A215" s="8" t="s">
         <v>270</v>
       </c>
@@ -27638,7 +27637,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="216" spans="1:38">
+    <row r="216" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A216" s="8" t="s">
         <v>271</v>
       </c>
@@ -27759,7 +27758,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="217" spans="1:38">
+    <row r="217" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A217" s="8" t="s">
         <v>272</v>
       </c>
@@ -27880,7 +27879,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="218" spans="1:38">
+    <row r="218" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A218" s="8" t="s">
         <v>273</v>
       </c>
@@ -28001,7 +28000,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="219" spans="1:38">
+    <row r="219" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A219" s="8" t="s">
         <v>274</v>
       </c>
@@ -28122,7 +28121,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="220" spans="1:38">
+    <row r="220" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A220" s="8" t="s">
         <v>275</v>
       </c>
@@ -28243,7 +28242,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="221" spans="1:38">
+    <row r="221" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A221" s="8" t="s">
         <v>276</v>
       </c>
@@ -28362,7 +28361,7 @@
       </c>
       <c r="AL221" s="39"/>
     </row>
-    <row r="222" spans="1:38">
+    <row r="222" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A222" s="8" t="s">
         <v>277</v>
       </c>
@@ -28481,7 +28480,7 @@
       </c>
       <c r="AL222" s="39"/>
     </row>
-    <row r="223" spans="1:38">
+    <row r="223" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A223" s="8" t="s">
         <v>278</v>
       </c>
@@ -28602,7 +28601,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="224" spans="1:38">
+    <row r="224" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A224" s="8" t="s">
         <v>279</v>
       </c>
@@ -28723,7 +28722,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="225" spans="1:38">
+    <row r="225" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A225" s="8" t="s">
         <v>280</v>
       </c>
@@ -28844,7 +28843,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="226" spans="1:38">
+    <row r="226" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A226" s="8" t="s">
         <v>281</v>
       </c>
@@ -28963,7 +28962,7 @@
       </c>
       <c r="AL226" s="39"/>
     </row>
-    <row r="227" spans="1:38">
+    <row r="227" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A227" s="8" t="s">
         <v>282</v>
       </c>
@@ -29082,7 +29081,7 @@
       </c>
       <c r="AL227" s="39"/>
     </row>
-    <row r="228" spans="1:38">
+    <row r="228" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A228" s="8" t="s">
         <v>283</v>
       </c>
@@ -29203,7 +29202,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="229" spans="1:38">
+    <row r="229" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A229" s="8" t="s">
         <v>284</v>
       </c>
@@ -29322,7 +29321,7 @@
       </c>
       <c r="AL229" s="39"/>
     </row>
-    <row r="230" spans="1:38">
+    <row r="230" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A230" s="8" t="s">
         <v>285</v>
       </c>
@@ -29443,7 +29442,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="231" spans="1:38">
+    <row r="231" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A231" s="8" t="s">
         <v>286</v>
       </c>
@@ -29562,7 +29561,7 @@
       </c>
       <c r="AL231" s="39"/>
     </row>
-    <row r="232" spans="1:38">
+    <row r="232" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A232" s="8" t="s">
         <v>287</v>
       </c>
@@ -29681,7 +29680,7 @@
       </c>
       <c r="AL232" s="39"/>
     </row>
-    <row r="233" spans="1:38">
+    <row r="233" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A233" s="8" t="s">
         <v>288</v>
       </c>
@@ -29802,7 +29801,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="234" spans="1:38">
+    <row r="234" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A234" s="8" t="s">
         <v>289</v>
       </c>
@@ -29923,7 +29922,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="235" spans="1:38">
+    <row r="235" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A235" s="8" t="s">
         <v>290</v>
       </c>
@@ -30042,7 +30041,7 @@
       </c>
       <c r="AL235" s="39"/>
     </row>
-    <row r="236" spans="1:38">
+    <row r="236" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A236" s="8" t="s">
         <v>292</v>
       </c>
@@ -30163,7 +30162,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="237" spans="1:38">
+    <row r="237" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A237" s="8" t="s">
         <v>293</v>
       </c>
@@ -30284,7 +30283,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="238" spans="1:38">
+    <row r="238" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A238" s="8" t="s">
         <v>294</v>
       </c>
@@ -30405,7 +30404,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="239" spans="1:38">
+    <row r="239" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A239" s="8" t="s">
         <v>295</v>
       </c>
@@ -30526,7 +30525,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="240" spans="1:38">
+    <row r="240" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A240" s="8" t="s">
         <v>296</v>
       </c>
@@ -30647,7 +30646,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="241" spans="1:38">
+    <row r="241" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A241" s="8" t="s">
         <v>297</v>
       </c>
@@ -30766,7 +30765,7 @@
       </c>
       <c r="AL241" s="39"/>
     </row>
-    <row r="242" spans="1:38">
+    <row r="242" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A242" s="8" t="s">
         <v>298</v>
       </c>
@@ -30885,7 +30884,7 @@
       </c>
       <c r="AL242" s="39"/>
     </row>
-    <row r="243" spans="1:38">
+    <row r="243" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A243" s="8" t="s">
         <v>299</v>
       </c>
@@ -31006,7 +31005,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="244" spans="1:38">
+    <row r="244" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A244" s="8" t="s">
         <v>300</v>
       </c>
@@ -31127,7 +31126,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="245" spans="1:38">
+    <row r="245" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A245" s="8" t="s">
         <v>301</v>
       </c>
@@ -31246,7 +31245,7 @@
       </c>
       <c r="AL245" s="39"/>
     </row>
-    <row r="246" spans="1:38">
+    <row r="246" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A246" s="8" t="s">
         <v>302</v>
       </c>
@@ -31365,7 +31364,7 @@
       </c>
       <c r="AL246" s="39"/>
     </row>
-    <row r="247" spans="1:38" ht="15" thickBot="1">
+    <row r="247" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="15" t="s">
         <v>303</v>
       </c>
@@ -31484,7 +31483,7 @@
       </c>
       <c r="AL247" s="39"/>
     </row>
-    <row r="248" spans="1:38">
+    <row r="248" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A248" s="11" t="s">
         <v>304</v>
       </c>
@@ -31605,7 +31604,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="249" spans="1:38">
+    <row r="249" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A249" s="11" t="s">
         <v>306</v>
       </c>
@@ -31726,7 +31725,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="250" spans="1:38">
+    <row r="250" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A250" s="11" t="s">
         <v>307</v>
       </c>
@@ -31847,7 +31846,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="251" spans="1:38">
+    <row r="251" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A251" s="11" t="s">
         <v>308</v>
       </c>
@@ -31968,7 +31967,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="252" spans="1:38">
+    <row r="252" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A252" s="11" t="s">
         <v>309</v>
       </c>
@@ -32078,7 +32077,7 @@
         <v>7.9466991499935385E-2</v>
       </c>
       <c r="AJ252" s="1">
-        <f t="shared" ref="AJ252:AJ288" si="22">(ABS(AI252-Q252)/Q252)*100</f>
+        <f t="shared" ref="AJ252:AJ257" si="22">(ABS(AI252-Q252)/Q252)*100</f>
         <v>14.551622043080231</v>
       </c>
       <c r="AK252" s="13">
@@ -32089,7 +32088,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="253" spans="1:38">
+    <row r="253" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A253" s="11" t="s">
         <v>310</v>
       </c>
@@ -32208,7 +32207,7 @@
       </c>
       <c r="AL253" s="39"/>
     </row>
-    <row r="254" spans="1:38">
+    <row r="254" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A254" s="11" t="s">
         <v>311</v>
       </c>
@@ -32329,7 +32328,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="255" spans="1:38">
+    <row r="255" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A255" s="11" t="s">
         <v>312</v>
       </c>
@@ -32450,7 +32449,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="256" spans="1:38">
+    <row r="256" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A256" s="11" t="s">
         <v>313</v>
       </c>
@@ -32571,7 +32570,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="257" spans="1:38">
+    <row r="257" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A257" s="11" t="s">
         <v>314</v>
       </c>
@@ -32690,7 +32689,7 @@
       </c>
       <c r="AL257" s="39"/>
     </row>
-    <row r="258" spans="1:38" ht="15" thickBot="1">
+    <row r="258" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="17" t="s">
         <v>315</v>
       </c>
@@ -32811,16 +32810,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AF3"/>
     <mergeCell ref="AI2:AI3"/>
     <mergeCell ref="AJ2:AJ3"/>
     <mergeCell ref="AL2:AL3"/>
@@ -32828,6 +32817,16 @@
     <mergeCell ref="V1:AB1"/>
     <mergeCell ref="AG2:AG3"/>
     <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -32835,12 +32834,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DF82C12-0478-4A20-9AC0-BC3F453814EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
